--- a/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
   <si>
     <t>Serie</t>
   </si>
@@ -1085,6 +1085,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I349"/>
+  <dimension ref="A1:I350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7372,13 +7375,36 @@
         <v>356</v>
       </c>
       <c r="B349">
-        <v>0.17</v>
+        <v>0.19</v>
+      </c>
+      <c r="C349">
+        <v>2602.3</v>
       </c>
       <c r="D349">
+        <v>0.23</v>
+      </c>
+      <c r="E349">
+        <v>1148.38</v>
+      </c>
+      <c r="F349">
+        <v>0.24</v>
+      </c>
+      <c r="G349">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>357</v>
+      </c>
+      <c r="B350">
         <v>0.2</v>
       </c>
-      <c r="F349">
-        <v>0.23</v>
+      <c r="D350">
+        <v>0.27</v>
+      </c>
+      <c r="F350">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -7400,11 +7400,26 @@
       <c r="B350">
         <v>0.2</v>
       </c>
+      <c r="C350">
+        <v>2723.88</v>
+      </c>
       <c r="D350">
-        <v>0.27</v>
+        <v>0.26</v>
+      </c>
+      <c r="E350">
+        <v>1100.91</v>
       </c>
       <c r="F350">
-        <v>0.48</v>
+        <v>0.47</v>
+      </c>
+      <c r="G350">
+        <v>245.62</v>
+      </c>
+      <c r="H350">
+        <v>2.53</v>
+      </c>
+      <c r="I350">
+        <v>7.86</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
   <si>
     <t>Serie</t>
   </si>
@@ -1088,6 +1088,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I350"/>
+  <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7422,6 +7425,20 @@
         <v>7.86</v>
       </c>
     </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>358</v>
+      </c>
+      <c r="B351">
+        <v>0.22</v>
+      </c>
+      <c r="D351">
+        <v>0.25</v>
+      </c>
+      <c r="F351">
+        <v>0.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -7430,13 +7430,28 @@
         <v>358</v>
       </c>
       <c r="B351">
-        <v>0.22</v>
+        <v>0.23</v>
+      </c>
+      <c r="C351">
+        <v>3411.83</v>
       </c>
       <c r="D351">
-        <v>0.25</v>
+        <v>0.31</v>
+      </c>
+      <c r="E351">
+        <v>2114.53</v>
       </c>
       <c r="F351">
-        <v>0.43</v>
+        <v>0.44</v>
+      </c>
+      <c r="G351">
+        <v>130.18</v>
+      </c>
+      <c r="H351">
+        <v>1.51</v>
+      </c>
+      <c r="I351">
+        <v>144.36</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
   <si>
     <t>Serie</t>
   </si>
@@ -1091,6 +1091,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:I352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7454,6 +7457,23 @@
         <v>144.36</v>
       </c>
     </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>359</v>
+      </c>
+      <c r="B352">
+        <v>0.2</v>
+      </c>
+      <c r="D352">
+        <v>0.38</v>
+      </c>
+      <c r="F352">
+        <v>0.72</v>
+      </c>
+      <c r="H352">
+        <v>2.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
+++ b/3/5/3/Operaciones en US$ 1992 a 2021 - Mensual.xlsx
@@ -7464,14 +7464,26 @@
       <c r="B352">
         <v>0.2</v>
       </c>
+      <c r="C352">
+        <v>2651.88</v>
+      </c>
       <c r="D352">
-        <v>0.38</v>
+        <v>0.36</v>
+      </c>
+      <c r="E352">
+        <v>1218.7</v>
       </c>
       <c r="F352">
-        <v>0.72</v>
+        <v>0.99</v>
+      </c>
+      <c r="G352">
+        <v>56.51</v>
       </c>
       <c r="H352">
-        <v>2.88</v>
+        <v>2.68</v>
+      </c>
+      <c r="I352">
+        <v>440.31</v>
       </c>
     </row>
   </sheetData>
